--- a/4/result.xlsx
+++ b/4/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\123\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cloudserver\WorkSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73205653-AE7A-470D-937D-2680D527D7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB008FF1-C40B-42D9-9E78-149236981F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
   <si>
     <t>Код меры</t>
   </si>
@@ -1130,31 +1130,13 @@
   </si>
   <si>
     <t>Контроль за установкой компонентов программного обеспечения (состав компонентов, параметры установки, конфигурация компонентов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS Control </t>
-  </si>
-  <si>
-    <t>NIST CSF</t>
-  </si>
-  <si>
-    <t>PR.DS-2: Data-in-transit is protected</t>
-  </si>
-  <si>
-    <t>CIS Control 16: Account Monitoring and Control</t>
-  </si>
-  <si>
-    <t>CIS Control 13: Data Protection</t>
-  </si>
-  <si>
-    <t>PR.AC-4 и PR.AC-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,13 +1148,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1210,12 +1185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1520,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,11 +1503,9 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="100.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,14 +1515,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1562,14 +1526,8 @@
       <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1579,14 +1537,8 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1652,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1685,7 +1637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1707,7 +1659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1718,7 +1670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
